--- a/data/math/math-104.xlsx
+++ b/data/math/math-104.xlsx
@@ -464,10 +464,15 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return regularizedGammaQ(a, x, DEFAULT_EPSILON, Integer.MAX_VALUE);
+</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
           <t>0.16667</t>
@@ -480,7 +485,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.special.Gamma$1</t>
+          <t>org.apache.commons.math.special.Gamma</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -488,10 +493,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr"/>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ContinuedFraction cf = new ContinuedFraction() {
+</t>
+        </is>
+      </c>
       <c r="E3" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -504,7 +514,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.special.Gamma$1</t>
+          <t>org.apache.commons.math.special.Gamma</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -512,10 +522,15 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr"/>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    return ((2.0 * n) + 1.0) - a + x;
+</t>
+        </is>
+      </c>
       <c r="E4" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -528,7 +543,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>org.apache.commons.math.special.Gamma$1</t>
+          <t>org.apache.commons.math.special.Gamma</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -536,10 +551,15 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    return n * (a - n);
+</t>
+        </is>
+      </c>
       <c r="E5" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -560,10 +580,15 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>5</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr"/>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (x &lt; a || a &lt; 1.0) {
+</t>
+        </is>
+      </c>
       <c r="E6" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -584,10 +609,15 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>6</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ContinuedFraction cf = new ContinuedFraction() {
+</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -608,10 +638,15 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>7</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr"/>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = 1.0 / cf.evaluate(x, epsilon, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E8" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -632,10 +667,15 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>8</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr"/>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = Math.exp(-x + (a * Math.log(x)) - logGamma(a)) * ret;
+</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>0.04000</t>
@@ -656,10 +696,15 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>9</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (x == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E10" t="inlineStr">
         <is>
           <t>0.03846</t>
@@ -680,10 +725,15 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>10</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return regularizedGammaP(a, x, DEFAULT_EPSILON, Integer.MAX_VALUE);
+</t>
+        </is>
+      </c>
       <c r="E11" t="inlineStr">
         <is>
           <t>0.03704</t>
@@ -704,10 +754,15 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>11</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr"/>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double n = 0.0; // current element index
+</t>
+        </is>
+      </c>
       <c r="E12" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -728,10 +783,15 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>12</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr"/>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double an = 1.0 / a; // n-th element in the series
+</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -752,10 +812,15 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sum = an; // partial sum
+</t>
+        </is>
+      </c>
       <c r="E14" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -776,10 +841,15 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            while (Math.abs(an) &gt; epsilon &amp;&amp; n &lt; maxIterations) {
+</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -800,10 +870,15 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>15</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                n = n + 1.0;
+</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -824,10 +899,15 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>16</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                an = an * (x / (a + n));
+</t>
+        </is>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -848,10 +928,15 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>17</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr"/>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sum = sum + an;
+</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -872,10 +957,15 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>18</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (n &gt;= maxIterations) {
+</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -896,10 +986,15 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>19</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr"/>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                ret = Math.exp(-x + (a * Math.log(x)) - logGamma(a)) * sum;
+</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -920,10 +1015,15 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr"/>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(a) || Double.isNaN(x) || (a &lt;= 0.0) || (x &lt; 0.0)) {
+</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -944,10 +1044,15 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>21</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>0.03226</t>
@@ -968,10 +1073,15 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>22</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr"/>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (a &gt;= 1.0 &amp;&amp; x &gt; a) {
+</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>0.02703</t>
@@ -992,10 +1102,15 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>23</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr"/>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } else if (x == 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>0.02564</t>
@@ -1016,10 +1131,15 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>24</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(a) || Double.isNaN(x) || (a &lt;= 0.0) || (x &lt; 0.0)) {
+</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
           <t>0.02273</t>
@@ -1040,10 +1160,15 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>25</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
           <t>0.02273</t>
@@ -1064,10 +1189,15 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>26</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1088,10 +1218,15 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>27</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1112,10 +1247,15 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>28</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double p0 = 1.0;
+</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1136,10 +1276,15 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>29</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr"/>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double p1 = getA(0, x);
+</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1160,10 +1305,15 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>30</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double q0 = 0.0;
+</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1184,10 +1334,15 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>31</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr"/>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double q1 = 1.0;
+</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1208,10 +1363,15 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>32</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double c = p1 / q1;
+</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1232,10 +1392,15 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>33</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr"/>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        int n = 0;
+</t>
+        </is>
+      </c>
       <c r="E34" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1256,10 +1421,15 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>34</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        double relativeError = Double.MAX_VALUE;
+</t>
+        </is>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1280,10 +1450,15 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>35</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        while (n &lt; maxIterations &amp;&amp; relativeError &gt; epsilon) {
+</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1304,10 +1479,15 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>36</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ++n;
+</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1328,10 +1508,15 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>37</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr"/>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double a = getA(n, x);
+</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1352,10 +1537,15 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>38</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double b = getB(n, x);
+</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1376,10 +1566,15 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>39</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr"/>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double p2 = a * p1 + b * p0;
+</t>
+        </is>
+      </c>
       <c r="E40" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1400,10 +1595,15 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>40</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr"/>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double q2 = a * q1 + b * q0;
+</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1424,10 +1624,15 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>41</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (Double.isInfinite(p2) || Double.isInfinite(q2)) {
+</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1448,10 +1653,15 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>42</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double r = p2 / q2;
+</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1472,10 +1682,15 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>43</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            relativeError = Math.abs(r / c - 1.0);
+</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1496,10 +1711,15 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>44</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr"/>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            c = p2 / q2;
+</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1520,10 +1740,15 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>45</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr"/>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            p0 = p1;
+</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1544,10 +1769,15 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>46</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            p1 = p2;
+</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1568,10 +1798,15 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>47</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr"/>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            q0 = q1;
+</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1592,10 +1827,15 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>48</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            q1 = q2;
+</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1616,10 +1856,15 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>49</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr"/>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E50" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1640,10 +1885,15 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr"/>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (n &gt;= maxIterations) {
+</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1664,10 +1914,15 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>51</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr"/>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return c;
+</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
           <t>0.01515</t>
@@ -1688,10 +1943,15 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>52</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double g = 607.0 / 128.0;
+</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1712,10 +1972,15 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>53</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr"/>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double sum = 0.0;
+</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1736,10 +2001,15 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>54</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            for (int i = lanczos.length - 1; i &gt; 0; --i) {
+</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1760,10 +2030,15 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>55</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                sum = sum + (lanczos[i] / (x + i));
+</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1784,10 +2059,15 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>56</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr"/>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            sum = sum + lanczos[0];
+</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1808,10 +2088,15 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>57</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr"/>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            double tmp = x + g + .5;
+</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1832,10 +2117,15 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>58</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = ((x + .5) * Math.log(tmp)) - tmp +
+</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
           <t>0.01250</t>
@@ -1856,10 +2146,15 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>59</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if (Double.isNaN(x) || (x &lt;= 0.0)) {
+</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
           <t>0.01205</t>
@@ -1880,10 +2175,15 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return ret;
+</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>0.01205</t>
@@ -1904,10 +2204,15 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>61</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static double[] lanczos =
+</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>0.01111</t>
@@ -1928,10 +2233,15 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>62</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static final double HALF_LOG_2_PI = 0.5 * Math.log(2.0 * Math.PI);
+</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>0.01111</t>
@@ -1952,10 +2262,15 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr"/>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super("Maximal number of iterations ({0}) exceeded",
+</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -1976,10 +2291,15 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>64</t>
-        </is>
-      </c>
-      <c r="D65" t="inlineStr"/>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.maxIterations = maxIterations;
+</t>
+        </is>
+      </c>
       <c r="E65" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2000,10 +2320,15 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>65</t>
-        </is>
-      </c>
-      <c r="D66" t="inlineStr"/>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2024,10 +2349,15 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>66</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2048,10 +2378,15 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>67</t>
-        </is>
-      </c>
-      <c r="D68" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.maxIterations = maxIterations;
+</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2072,10 +2407,15 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>68</t>
-        </is>
-      </c>
-      <c r="D69" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2096,10 +2436,15 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>69</t>
-        </is>
-      </c>
-      <c r="D70" t="inlineStr"/>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return maxIterations;
+</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2120,10 +2465,15 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>70</t>
-        </is>
-      </c>
-      <c r="D71" t="inlineStr"/>
+          <t>34</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super("Convergence failed", new Object[0]);
+</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2144,10 +2494,15 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>71</t>
-        </is>
-      </c>
-      <c r="D72" t="inlineStr"/>
+          <t>35</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2168,10 +2523,15 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>72</t>
-        </is>
-      </c>
-      <c r="D73" t="inlineStr"/>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(pattern, arguments);
+</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2192,10 +2552,15 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>73</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr"/>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2216,10 +2581,15 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>74</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(cause);
+</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2240,10 +2610,15 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>75</t>
-        </is>
-      </c>
-      <c r="D76" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E76" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2264,10 +2639,15 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>76</t>
-        </is>
-      </c>
-      <c r="D77" t="inlineStr"/>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(pattern, arguments, cause);
+</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2288,10 +2668,15 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>77</t>
-        </is>
-      </c>
-      <c r="D78" t="inlineStr"/>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2312,10 +2697,15 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>78</t>
-        </is>
-      </c>
-      <c r="D79" t="inlineStr"/>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(msg, rootCause);
+</t>
+        </is>
+      </c>
       <c r="E79" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2336,10 +2726,15 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>79</t>
-        </is>
-      </c>
-      <c r="D80" t="inlineStr"/>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2360,10 +2755,15 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>80</t>
-        </is>
-      </c>
-      <c r="D81" t="inlineStr"/>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(msg);
+</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2384,10 +2784,15 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>81</t>
-        </is>
-      </c>
-      <c r="D82" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2408,10 +2813,15 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>82</t>
-        </is>
-      </c>
-      <c r="D83" t="inlineStr"/>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E83" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2432,10 +2842,15 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>83</t>
-        </is>
-      </c>
-      <c r="D84" t="inlineStr"/>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = null;
+</t>
+        </is>
+      </c>
       <c r="E84" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2456,10 +2871,15 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>84</t>
-        </is>
-      </c>
-      <c r="D85" t="inlineStr"/>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2480,10 +2900,15 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>85</t>
-        </is>
-      </c>
-      <c r="D86" t="inlineStr"/>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.rootCause = null;
+</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2504,10 +2929,15 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>86</t>
-        </is>
-      </c>
-      <c r="D87" t="inlineStr"/>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2528,10 +2958,15 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>87</t>
-        </is>
-      </c>
-      <c r="D88" t="inlineStr"/>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(msg);
+</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2552,10 +2987,15 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>88</t>
-        </is>
-      </c>
-      <c r="D89" t="inlineStr"/>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = msg;
+</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2576,10 +3016,15 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>89</t>
-        </is>
-      </c>
-      <c r="D90" t="inlineStr"/>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2600,10 +3045,15 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="D91" t="inlineStr"/>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.rootCause = null;
+</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2624,10 +3074,15 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>91</t>
-        </is>
-      </c>
-      <c r="D92" t="inlineStr"/>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2648,10 +3103,15 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>92</t>
-        </is>
-      </c>
-      <c r="D93" t="inlineStr"/>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      super(buildMessage(pattern, arguments, Locale.US));
+</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2672,10 +3132,15 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>93</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.pattern   = pattern;
+</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2696,10 +3161,15 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>94</t>
-        </is>
-      </c>
-      <c r="D95" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.arguments = arguments;
+</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2720,10 +3190,15 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>95</t>
-        </is>
-      </c>
-      <c r="D96" t="inlineStr"/>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.rootCause = null;
+</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2744,10 +3219,15 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>96</t>
-        </is>
-      </c>
-      <c r="D97" t="inlineStr"/>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2768,10 +3248,15 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>97</t>
-        </is>
-      </c>
-      <c r="D98" t="inlineStr"/>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super((rootCause == null ? null : rootCause.getMessage()));
+</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2792,10 +3277,15 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>98</t>
-        </is>
-      </c>
-      <c r="D99" t="inlineStr"/>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = getMessage();
+</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2816,10 +3306,15 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>99</t>
-        </is>
-      </c>
-      <c r="D100" t="inlineStr"/>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2840,10 +3335,15 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="D101" t="inlineStr"/>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.rootCause = rootCause;
+</t>
+        </is>
+      </c>
       <c r="E101" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2864,10 +3364,15 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>101</t>
-        </is>
-      </c>
-      <c r="D102" t="inlineStr"/>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E102" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2888,10 +3393,15 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>102</t>
-        </is>
-      </c>
-      <c r="D103" t="inlineStr"/>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super(msg);
+</t>
+        </is>
+      </c>
       <c r="E103" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2912,10 +3422,15 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>103</t>
-        </is>
-      </c>
-      <c r="D104" t="inlineStr"/>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.pattern   = msg;
+</t>
+        </is>
+      </c>
       <c r="E104" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2936,10 +3451,15 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>104</t>
-        </is>
-      </c>
-      <c r="D105" t="inlineStr"/>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.arguments = new Object[0];
+</t>
+        </is>
+      </c>
       <c r="E105" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2960,10 +3480,15 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>105</t>
-        </is>
-      </c>
-      <c r="D106" t="inlineStr"/>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        this.rootCause = rootCause;
+</t>
+        </is>
+      </c>
       <c r="E106" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -2984,10 +3509,15 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>106</t>
-        </is>
-      </c>
-      <c r="D107" t="inlineStr"/>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3008,10 +3538,15 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="D108" t="inlineStr"/>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      super(buildMessage(pattern, arguments, Locale.US));
+</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3032,10 +3567,15 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>108</t>
-        </is>
-      </c>
-      <c r="D109" t="inlineStr"/>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.pattern   = pattern;
+</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3056,10 +3596,15 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>109</t>
-        </is>
-      </c>
-      <c r="D110" t="inlineStr"/>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.arguments = arguments;
+</t>
+        </is>
+      </c>
       <c r="E110" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3080,10 +3625,15 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>110</t>
-        </is>
-      </c>
-      <c r="D111" t="inlineStr"/>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">      this.rootCause = rootCause;
+</t>
+        </is>
+      </c>
       <c r="E111" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3104,10 +3654,15 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>111</t>
-        </is>
-      </c>
-      <c r="D112" t="inlineStr"/>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E112" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3128,10 +3683,15 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>112</t>
-        </is>
-      </c>
-      <c r="D113" t="inlineStr"/>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        boolean flag = false;
+</t>
+        </is>
+      </c>
       <c r="E113" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3152,10 +3712,15 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>113</t>
-        </is>
-      </c>
-      <c r="D114" t="inlineStr"/>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            Throwable.class.getDeclaredMethod("getCause", new Class[0]);
+</t>
+        </is>
+      </c>
       <c r="E114" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3176,10 +3741,15 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>114</t>
-        </is>
-      </c>
-      <c r="D115" t="inlineStr"/>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            flag = true;
+</t>
+        </is>
+      </c>
       <c r="E115" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3200,10 +3770,15 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>115</t>
-        </is>
-      </c>
-      <c r="D116" t="inlineStr"/>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E116" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3224,10 +3799,15 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>116</t>
-        </is>
-      </c>
-      <c r="D117" t="inlineStr"/>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (NoSuchMethodException ex) {
+</t>
+        </is>
+      </c>
       <c r="E117" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3248,10 +3828,15 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>117</t>
-        </is>
-      </c>
-      <c r="D118" t="inlineStr"/>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            flag = false;
+</t>
+        </is>
+      </c>
       <c r="E118" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3272,10 +3857,15 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>118</t>
-        </is>
-      </c>
-      <c r="D119" t="inlineStr"/>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        JDK_SUPPORTS_NESTED = flag;
+</t>
+        </is>
+      </c>
       <c r="E119" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3296,10 +3886,15 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>119</t>
-        </is>
-      </c>
-      <c r="D120" t="inlineStr"/>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    private static ResourceBundle cachedResources = null;
+</t>
+        </is>
+      </c>
       <c r="E120" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3320,10 +3915,15 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>120</t>
-        </is>
-      </c>
-      <c r="D121" t="inlineStr"/>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if ((cachedResources == null) || (! cachedResources.getLocale().equals(locale))) {
+</t>
+        </is>
+      </c>
       <c r="E121" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3344,10 +3944,15 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>121</t>
-        </is>
-      </c>
-      <c r="D122" t="inlineStr"/>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                cachedResources =
+</t>
+        </is>
+      </c>
       <c r="E122" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3368,10 +3973,15 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>122</t>
-        </is>
-      </c>
-      <c r="D123" t="inlineStr"/>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (cachedResources.getLocale().getLanguage().equals(locale.getLanguage())) {
+</t>
+        </is>
+      </c>
       <c r="E123" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3392,10 +4002,15 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>123</t>
-        </is>
-      </c>
-      <c r="D124" t="inlineStr"/>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                return cachedResources.getString(s);
+</t>
+        </is>
+      </c>
       <c r="E124" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3416,10 +4031,15 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>124</t>
-        </is>
-      </c>
-      <c r="D125" t="inlineStr"/>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E125" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3440,10 +4060,15 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>125</t>
-        </is>
-      </c>
-      <c r="D126" t="inlineStr"/>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        } catch (MissingResourceException mre) {
+</t>
+        </is>
+      </c>
       <c r="E126" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3464,10 +4089,15 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>126</t>
-        </is>
-      </c>
-      <c r="D127" t="inlineStr"/>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return s;
+</t>
+        </is>
+      </c>
       <c r="E127" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3488,10 +4118,15 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>127</t>
-        </is>
-      </c>
-      <c r="D128" t="inlineStr"/>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        MessageFormat mf = new MessageFormat(translate(pattern, locale));
+</t>
+        </is>
+      </c>
       <c r="E128" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3512,10 +4147,15 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>128</t>
-        </is>
-      </c>
-      <c r="D129" t="inlineStr"/>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        mf.setLocale(locale);
+</t>
+        </is>
+      </c>
       <c r="E129" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3536,10 +4176,15 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>129</t>
-        </is>
-      </c>
-      <c r="D130" t="inlineStr"/>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return mf.format(arguments);        
+</t>
+        </is>
+      </c>
       <c r="E130" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3560,10 +4205,15 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>130</t>
-        </is>
-      </c>
-      <c r="D131" t="inlineStr"/>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return pattern;
+</t>
+        </is>
+      </c>
       <c r="E131" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3584,10 +4234,15 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>131</t>
-        </is>
-      </c>
-      <c r="D132" t="inlineStr"/>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return arguments;
+</t>
+        </is>
+      </c>
       <c r="E132" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3608,10 +4263,15 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>132</t>
-        </is>
-      </c>
-      <c r="D133" t="inlineStr"/>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return (pattern == null) ? null : buildMessage(pattern, arguments, locale);
+</t>
+        </is>
+      </c>
       <c r="E133" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3632,10 +4292,15 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>133</t>
-        </is>
-      </c>
-      <c r="D134" t="inlineStr"/>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return rootCause;
+</t>
+        </is>
+      </c>
       <c r="E134" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3656,10 +4321,15 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>134</t>
-        </is>
-      </c>
-      <c r="D135" t="inlineStr"/>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        printStackTrace(System.err);
+</t>
+        </is>
+      </c>
       <c r="E135" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3680,10 +4350,15 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>135</t>
-        </is>
-      </c>
-      <c r="D136" t="inlineStr"/>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E136" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3704,10 +4379,15 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>136</t>
-        </is>
-      </c>
-      <c r="D137" t="inlineStr"/>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        synchronized (out) {
+</t>
+        </is>
+      </c>
       <c r="E137" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3728,10 +4408,15 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>137</t>
-        </is>
-      </c>
-      <c r="D138" t="inlineStr"/>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            PrintWriter pw = new PrintWriter(out, false);
+</t>
+        </is>
+      </c>
       <c r="E138" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3752,10 +4437,15 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>138</t>
-        </is>
-      </c>
-      <c r="D139" t="inlineStr"/>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            printStackTrace(pw);
+</t>
+        </is>
+      </c>
       <c r="E139" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3776,10 +4466,15 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>139</t>
-        </is>
-      </c>
-      <c r="D140" t="inlineStr"/>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            pw.flush();
+</t>
+        </is>
+      </c>
       <c r="E140" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3800,10 +4495,15 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>140</t>
-        </is>
-      </c>
-      <c r="D141" t="inlineStr"/>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E141" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3824,10 +4524,15 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>141</t>
-        </is>
-      </c>
-      <c r="D142" t="inlineStr"/>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E142" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3848,10 +4553,15 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>142</t>
-        </is>
-      </c>
-      <c r="D143" t="inlineStr"/>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        synchronized (out) {
+</t>
+        </is>
+      </c>
       <c r="E143" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3872,10 +4582,15 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>143</t>
-        </is>
-      </c>
-      <c r="D144" t="inlineStr"/>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            super.printStackTrace(out);
+</t>
+        </is>
+      </c>
       <c r="E144" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3896,10 +4611,15 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>144</t>
-        </is>
-      </c>
-      <c r="D145" t="inlineStr"/>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if (rootCause != null &amp;&amp; JDK_SUPPORTS_NESTED == false) {
+</t>
+        </is>
+      </c>
       <c r="E145" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3920,10 +4640,15 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>145</t>
-        </is>
-      </c>
-      <c r="D146" t="inlineStr"/>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                out.print("Caused by: ");
+</t>
+        </is>
+      </c>
       <c r="E146" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3944,10 +4669,15 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>146</t>
-        </is>
-      </c>
-      <c r="D147" t="inlineStr"/>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                rootCause.printStackTrace(out);
+</t>
+        </is>
+      </c>
       <c r="E147" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3968,10 +4698,15 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>147</t>
-        </is>
-      </c>
-      <c r="D148" t="inlineStr"/>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        }
+</t>
+        </is>
+      </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -3992,10 +4727,15 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>148</t>
-        </is>
-      </c>
-      <c r="D149" t="inlineStr"/>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E149" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4016,10 +4756,15 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>149</t>
-        </is>
-      </c>
-      <c r="D150" t="inlineStr"/>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return evaluate(x, DEFAULT_EPSILON, Integer.MAX_VALUE);
+</t>
+        </is>
+      </c>
       <c r="E150" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4040,10 +4785,15 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>150</t>
-        </is>
-      </c>
-      <c r="D151" t="inlineStr"/>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return evaluate(x, epsilon, Integer.MAX_VALUE);
+</t>
+        </is>
+      </c>
       <c r="E151" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4064,10 +4814,15 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>151</t>
-        </is>
-      </c>
-      <c r="D152" t="inlineStr"/>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        return evaluate(x, DEFAULT_EPSILON, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E152" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4088,10 +4843,15 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>152</t>
-        </is>
-      </c>
-      <c r="D153" t="inlineStr"/>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                if (a != 0.0) {
+</t>
+        </is>
+      </c>
       <c r="E153" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4112,10 +4872,15 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>153</t>
-        </is>
-      </c>
-      <c r="D154" t="inlineStr"/>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    p2 = p1 + (b / a * p0);
+</t>
+        </is>
+      </c>
       <c r="E154" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4136,10 +4901,15 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>154</t>
-        </is>
-      </c>
-      <c r="D155" t="inlineStr"/>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    q2 = q1 + (b / a * q0);
+</t>
+        </is>
+      </c>
       <c r="E155" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4160,10 +4930,15 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>155</t>
-        </is>
-      </c>
-      <c r="D156" t="inlineStr"/>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                } else if (b != 0) {
+</t>
+        </is>
+      </c>
       <c r="E156" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4184,10 +4959,15 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>156</t>
-        </is>
-      </c>
-      <c r="D157" t="inlineStr"/>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    p2 = (a / b * p1) + p0;
+</t>
+        </is>
+      </c>
       <c r="E157" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4208,10 +4988,15 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>157</t>
-        </is>
-      </c>
-      <c r="D158" t="inlineStr"/>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    q2 = (a / b * q1) + q0;
+</t>
+        </is>
+      </c>
       <c r="E158" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4232,10 +5017,15 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>158</t>
-        </is>
-      </c>
-      <c r="D159" t="inlineStr"/>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    throw new ConvergenceException(
+</t>
+        </is>
+      </c>
       <c r="E159" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4256,10 +5046,15 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>159</t>
-        </is>
-      </c>
-      <c r="D160" t="inlineStr"/>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            throw new MaxIterationsExceededException(maxIterations,
+</t>
+        </is>
+      </c>
       <c r="E160" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4280,10 +5075,15 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>160</t>
-        </is>
-      </c>
-      <c r="D161" t="inlineStr"/>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        super();
+</t>
+        </is>
+      </c>
       <c r="E161" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4304,10 +5104,15 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>161</t>
-        </is>
-      </c>
-      <c r="D162" t="inlineStr"/>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    }
+</t>
+        </is>
+      </c>
       <c r="E162" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4328,10 +5133,15 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>162</t>
-        </is>
-      </c>
-      <c r="D163" t="inlineStr"/>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E163" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4352,10 +5162,15 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>163</t>
-        </is>
-      </c>
-      <c r="D164" t="inlineStr"/>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E164" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4376,10 +5191,15 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>164</t>
-        </is>
-      </c>
-      <c r="D165" t="inlineStr"/>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = 0.0;
+</t>
+        </is>
+      </c>
       <c r="E165" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4403,7 +5223,12 @@
           <t>165</t>
         </is>
       </c>
-      <c r="D166" t="inlineStr"/>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = 1.0 - regularizedGammaQ(a, x, epsilon, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E166" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4424,10 +5249,15 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>166</t>
-        </is>
-      </c>
-      <c r="D167" t="inlineStr"/>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                throw new MaxIterationsExceededException(maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E167" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4448,10 +5278,15 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>167</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr"/>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = Double.NaN;
+</t>
+        </is>
+      </c>
       <c r="E168" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4472,10 +5307,15 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>168</t>
-        </is>
-      </c>
-      <c r="D169" t="inlineStr"/>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = 1.0;
+</t>
+        </is>
+      </c>
       <c r="E169" t="inlineStr">
         <is>
           <t>0.00000</t>
@@ -4496,10 +5336,15 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>169</t>
-        </is>
-      </c>
-      <c r="D170" t="inlineStr"/>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            ret = 1.0 - regularizedGammaP(a, x, epsilon, maxIterations);
+</t>
+        </is>
+      </c>
       <c r="E170" t="inlineStr">
         <is>
           <t>0.00000</t>
